--- a/data/trans_bre/P44_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P44_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-14,32</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-32,74%</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>-72,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>-35,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>523,28%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>82,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-46,56%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 7,79</t>
+          <t>-33,38; 1,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 31,74</t>
+          <t>-6,64; 2,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 26,92</t>
+          <t>0,42; 4,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 24,92</t>
+          <t>-1,1; 2,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,15; 32,66</t>
+          <t>-4,35; 1,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 280,42</t>
+          <t>-100,0; 87,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,69; 565,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-59,52; 433,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-58,93; 806,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,15</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,52%</t>
+          <t>100,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-32,33%</t>
+          <t>50,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-30,29%</t>
+          <t>-7,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>82,93%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 13,09</t>
+          <t>0,99; 8,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 5,16</t>
+          <t>-1,31; 5,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 3,44</t>
+          <t>-3,6; 2,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 5,8</t>
+          <t>-2,37; 2,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 48,37</t>
+          <t>-1,09; 1,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,64; 22,36</t>
+          <t>11,97; 340,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 14,43</t>
+          <t>-24,75; 181,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,18; 25,62</t>
+          <t>-58,03; 86,23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-42,81; 111,59</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,64</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,81%</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,88%</t>
+          <t>-14,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>56,64%</t>
+          <t>43,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,87%</t>
+          <t>61,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>134,36%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 8,03</t>
+          <t>-5,23; 3,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 16,32</t>
+          <t>-2,12; 5,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 26,48</t>
+          <t>-1,25; 3,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 18,79</t>
+          <t>-2,36; 2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 26,42</t>
+          <t>-0,98; 2,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 73,19</t>
+          <t>-69,08; 133,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,18; 366,07</t>
+          <t>-39,07; 271,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 168,98</t>
+          <t>-52,22; 464,73</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-67,92; 209,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,6%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>-19,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>108,36%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-15,03%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 5,88</t>
+          <t>-2,36; 2,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 5,83</t>
+          <t>-4,52; 1,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 10,43</t>
+          <t>0,13; 6,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 5,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 19,02</t>
+          <t>-2,42; 1,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 23,1</t>
+          <t>-28,52; 52,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,89; 56,65</t>
+          <t>-58,28; 45,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,12; 26,76</t>
+          <t>-6,51; 430,49</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-84,73; 289,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37,4%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 2,43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 2,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 2,42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 1,78</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 0,94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-23,22; 47,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-26,78; 50,28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,39; 121,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-29,94; 91,49</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-49,24; 135,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P44_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P44_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,229 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-72,25%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-35,53%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>523,28%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>82,16%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-46,56%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-27.06580477726291</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-13.58971967391092</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>15.42430302515521</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.800290117045183</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-14.11930078388116</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4969973364814794</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4155391980233281</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>3.56331623130068</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5393848931883467</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.5498402393590555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-33,38; 1,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,64; 2,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 4,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 2,94</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 1,13</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 87,97</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-58,93; 806,64</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-71.9238880533904</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-47.01750857164162</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1447941824451138</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-10.75796989826865</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-41.57470695260396</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8821527139134643</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-0.526005716154471</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.0891219330403</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.98164459487941</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>32.74829974988999</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>25.42260456796947</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.59071369274134</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.028954158082922</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.602427767779373</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="n">
+        <v>5.976261620280809</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.924258799220282</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,41</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>100,17%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>50,52%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-7,6%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,06%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>82,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 8,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 5,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 2,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 2,8</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 1,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>11,97; 340,02</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-24,75; 181,37</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-58,03; 86,23</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-42,81; 111,59</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.489743656344849</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.06688442630204</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-17.89323229268422</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-12.32386220523028</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.9498332818108656</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2427895520587884</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.07526330645324049</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4493515046294769</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.3490541686840888</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1528264464411914</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-14,49%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>43,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>61,23%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,38%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>134,36%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.05755446887238</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-19.15033484957942</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-37.62363302014457</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-32.59630365397256</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-14.22623417783997</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.329179000360886</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4985949219566199</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6982850555638551</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.6444024821979423</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 3,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 5,48</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 3,28</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 2,14</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 2,55</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-69,08; 133,58</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-39,07; 271,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-52,22; 464,73</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-67,92; 209,51</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>24.46261012676122</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.83100228802402</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5174698790535587</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.815428220229425</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.623633560873659</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.549129840418241</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.9701674833831646</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.03120440911230451</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1249406415008496</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +873,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-19,97%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>108,36%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-15,03%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-12.24526905812824</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3565542216527551</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.801198667822026</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.808999431510124</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>3.466308380333833</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2965459814150098</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.01077066299697471</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4943247554151984</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.03145467683117529</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3112674130530239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 2,83</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 1,74</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 6,27</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 1,29</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-28,52; 52,77</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-58,28; 45,14</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; 430,49</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-84,73; 289,26</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-39.07640617086305</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-27.36480924390902</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.52666469681992</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-25.53939517268832</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-28.62162128302466</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6628781983658644</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5333691411806848</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4915996311890879</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6232782188650902</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.0975159548422</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>22.24382793400536</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>26.83441248641746</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.0289990517113</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>20.2138038668149</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.5686846049970746</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.32600097200333</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.790298875641958</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.603280226655163</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,12%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>37,4%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>16,42%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>14,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 2,43</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 2,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 2,42</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 1,78</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 0,94</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-23,22; 47,29</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-26,78; 50,28</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-16,39; 121,29</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-29,94; 91,49</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-49,24; 135,23</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-5.157886175324405</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.6514447927178</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-4.139613936271235</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-5.746186628650565</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.321197590391454</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1405977975320571</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.0888437878331489</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1537161255638251</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1978102676464458</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1184941498469244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-25.15382554843061</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-17.35280508566577</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-18.35905237043331</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-18.55934026454394</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-11.95142009869999</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4923203056370385</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4264820656878765</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4846126126435751</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4827907128985234</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.6672457447779808</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.2385944024738</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.97163220571086</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.520305366419977</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.659821080523496</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>6.284037488322464</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.406971738411077</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4841582103424618</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4161144437190047</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2317844713054765</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.482930057268318</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
